--- a/DaasApiTesting/case_data/case.xlsx
+++ b/DaasApiTesting/case_data/case.xlsx
@@ -82,9 +82,6 @@
     <t>token=$.payload.access_token;tenantId=$.payload.userInfo.tenantId;userId=$.payload.userInfo.userId</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>【采集任务列表查询】</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
     <t>id=$..id</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>新建项目</t>
   </si>
   <si>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -163,9 +163,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,9 +208,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,16 +230,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,98 +285,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,31 +328,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,61 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,49 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,31 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,8 +525,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,30 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,8 +573,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,13 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,148 +624,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3"/>
@@ -1220,33 +1220,33 @@
     </row>
     <row r="3" ht="164.1" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" ht="108" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
@@ -1264,7 +1264,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DaasApiTesting/case_data/case.xlsx
+++ b/DaasApiTesting/case_data/case.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28040" windowHeight="11600"/>
+    <workbookView windowWidth="24940" windowHeight="11600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="登录" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>is_run</t>
   </si>
@@ -109,9 +110,6 @@
     <t>id=$..id</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>新建项目</t>
   </si>
   <si>
@@ -121,7 +119,7 @@
     <t>{"Authorization":"Bearer ${token}","Content-Type":"application/json;charset=UTF-8"}</t>
   </si>
   <si>
-    <t>{"name":"sywLH","code":"${project_code}","type":0,"description":"请不要删除","modelType":0,"devComputeResourceId":"1327806754129444962","prodComputeResourceId":"1327807242262544429","businessSegmentId":"1293082610561450037"}</t>
+    <t>{"name":"sywLH32343","code":"syw_1inlihui","type":0,"description":"请不要删除","modelType":0,"devComputeResourceId":"1327806754129444962","prodComputeResourceId":"1327807242262544429","businessSegmentId":"1293082610561450037"}</t>
   </si>
 </sst>
 </file>
@@ -129,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -163,30 +161,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,15 +236,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +267,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -230,84 +282,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,49 +326,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,133 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,24 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,6 +531,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,15 +591,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -590,32 +600,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,154 +622,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,9 +801,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,12 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1119,160 +1129,137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="15.5480769230769" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="104.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.13461538461539" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="52.8846153846154" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="45.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="29.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.5480769230769" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="104.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="43" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.13461538461539" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17" style="9" customWidth="1"/>
+    <col min="8" max="8" width="52.8846153846154" style="10" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="9" customWidth="1"/>
+    <col min="11" max="11" width="45.875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="9" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="9" customWidth="1"/>
+    <col min="14" max="14" width="26.25" style="9" customWidth="1"/>
+    <col min="15" max="15" width="29.625" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="69.95" customHeight="1" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" ht="164.1" customHeight="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="108" customHeight="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D5:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D4:D1048576">
       <formula1>"POST,GET,UPLOAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L4 L5:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L3 L4:L1048576">
       <formula1>"mysql,redis"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1280,4 +1267,117 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15.5480769230769" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="104.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.13461538461539" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.8846153846154" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="108" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3:D1048576">
+      <formula1>"POST,GET,UPLOAD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L2 L3:L1048576">
+      <formula1>"mysql,redis"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DaasApiTesting/case_data/case.xlsx
+++ b/DaasApiTesting/case_data/case.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="新建项目" sheetId="4" r:id="rId2"/>
+    <sheet name="采集任务列表" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>is_run</t>
   </si>
@@ -81,6 +82,24 @@
   </si>
   <si>
     <t>token=$.payload.access_token;tenantId=$.payload.userInfo.tenantId;userId=$.payload.userInfo.userId</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>新建项目</t>
+  </si>
+  <si>
+    <t>/deepexi-daas-security/api/v1/projects?tenantId=${tenantId}&amp;userId=${userId}&amp;_=1597633712784</t>
+  </si>
+  <si>
+    <t>{"Authorization":"Bearer ${token}","Content-Type":"application/json;charset=UTF-8"}</t>
+  </si>
+  <si>
+    <t>{"name":"sywLH32343","code":"syw_1inlihui","type":0,"description":"请不要删除","modelType":0,"devComputeResourceId":"1327806754129444962","prodComputeResourceId":"1327807242262544429","businessSegmentId":"1293082610561450037"}</t>
+  </si>
+  <si>
+    <t>$.msg=ok;$.code=0</t>
   </si>
   <si>
     <t>【采集任务列表查询】</t>
@@ -104,22 +123,7 @@
 }</t>
   </si>
   <si>
-    <t>$.msg=ok;$.code=0</t>
-  </si>
-  <si>
     <t>id=$..id</t>
-  </si>
-  <si>
-    <t>新建项目</t>
-  </si>
-  <si>
-    <t>/deepexi-daas-security/api/v1/projects?tenantId=${tenantId}&amp;userId=${userId}&amp;_=1597633712784</t>
-  </si>
-  <si>
-    <t>{"Authorization":"Bearer ${token}","Content-Type":"application/json;charset=UTF-8"}</t>
-  </si>
-  <si>
-    <t>{"name":"sywLH32343","code":"syw_1inlihui","type":0,"description":"请不要删除","modelType":0,"devComputeResourceId":"1327806754129444962","prodComputeResourceId":"1327807242262544429","businessSegmentId":"1293082610561450037"}</t>
   </si>
 </sst>
 </file>
@@ -771,6 +775,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,33 +806,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,137 +1133,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.5480769230769" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="104.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="43" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.13461538461539" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17" style="9" customWidth="1"/>
-    <col min="8" max="8" width="52.8846153846154" style="10" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="9" customWidth="1"/>
-    <col min="11" max="11" width="45.875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="9" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="9" customWidth="1"/>
-    <col min="14" max="14" width="26.25" style="9" customWidth="1"/>
-    <col min="15" max="15" width="29.625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="15.5480769230769" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="104.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.13461538461539" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.8846153846154" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="69.95" customHeight="1" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="164.1" customHeight="1" spans="1:11">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D4:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D3:D1048576">
       <formula1>"POST,GET,UPLOAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L3 L4:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2 L3:L1048576">
       <formula1>"mysql,redis"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1274,8 +1252,121 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15.5480769230769" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="104.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="43" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.13461538461539" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17" style="8" customWidth="1"/>
+    <col min="8" max="8" width="52.8846153846154" style="10" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="45.875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="8" customWidth="1"/>
+    <col min="14" max="14" width="26.25" style="8" customWidth="1"/>
+    <col min="15" max="15" width="29.625" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" ht="39" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="108" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3:D1048576">
+      <formula1>"POST,GET,UPLOAD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L2 L3:L1048576">
+      <formula1>"mysql,redis"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -1345,27 +1436,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="108" customHeight="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="164.1" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
